--- a/xlsx/room.xlsx
+++ b/xlsx/room.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48400229-2CF6-48A5-99CE-1D9927F6C210}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0C3D19-E94D-4B62-A111-23EF607C2F72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="3870" windowWidth="22260" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="K6">
         <v>0</v>
